--- a/Management/GanttChart.xlsx
+++ b/Management/GanttChart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ooad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ooad\bankbankatm\Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,15 +55,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>setup the Github repository</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Create a project in the Github</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Give the descripiton of the project</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -100,6 +92,14 @@
   </si>
   <si>
     <t>Start Date in Number Form</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>setup the Github repository</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Give the description of the project</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +415,7 @@
                   <c:v>Create a project in the Github</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Give the descripiton of the project</c:v>
+                  <c:v>Give the description of the project</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Define the requirements and functions of the project</c:v>
@@ -765,7 +765,7 @@
                   <c:v>Create a project in the Github</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Give the descripiton of the project</c:v>
+                  <c:v>Give the description of the project</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Define the requirements and functions of the project</c:v>
@@ -1121,7 +1121,7 @@
                   <c:v>Create a project in the Github</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Give the descripiton of the project</c:v>
+                  <c:v>Give the description of the project</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Define the requirements and functions of the project</c:v>
@@ -1215,11 +1215,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1084404496"/>
-        <c:axId val="1084393616"/>
+        <c:axId val="1580270128"/>
+        <c:axId val="1580271216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1084404496"/>
+        <c:axId val="1580270128"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1262,7 +1262,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1084393616"/>
+        <c:crossAx val="1580271216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1270,7 +1270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1084393616"/>
+        <c:axId val="1580271216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43037"/>
@@ -1324,7 +1324,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1084404496"/>
+        <c:crossAx val="1580270128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -2220,7 +2220,7 @@
   <dimension ref="B1:S39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2263,7 +2263,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" s="8">
         <f>C3</f>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="4" spans="2:19" ht="25.05" customHeight="1">
       <c r="B4" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3">
         <v>43037</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="6" spans="2:19" ht="25.05" customHeight="1">
       <c r="B6" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>43042</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="7" spans="2:19" ht="25.05" customHeight="1">
       <c r="B7" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3">
         <v>43043</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="8" spans="2:19" ht="30.6" customHeight="1">
       <c r="B8" s="18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>43060</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="9" spans="2:19" ht="25.05" customHeight="1">
       <c r="B9" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3">
         <v>43044</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="10" spans="2:19" ht="25.05" customHeight="1">
       <c r="B10" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>43047</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="11" spans="2:19" ht="25.05" customHeight="1">
       <c r="B11" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3">
         <v>43068</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="12" spans="2:19" ht="25.05" customHeight="1">
       <c r="B12" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3">
         <v>43080</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="13" spans="2:19" ht="25.05" customHeight="1">
       <c r="B13" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>43081</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="14" spans="2:19" ht="25.05" customHeight="1">
       <c r="B14" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3">
         <v>43090</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="15" spans="2:19" ht="25.05" customHeight="1">
       <c r="B15" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3">
         <v>43091</v>
